--- a/Tables/Sources/gameplay/BlackMarketConfig.xlsx
+++ b/Tables/Sources/gameplay/BlackMarketConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>商品ID</t>
   </si>
@@ -33,12 +33,6 @@
     <t>icon名</t>
   </si>
   <si>
-    <t>icon资源</t>
-  </si>
-  <si>
-    <t>限购数量</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -48,6 +42,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
   </si>
   <si>
     <t>IconName</t>
-  </si>
-  <si>
-    <t>IconSource</t>
-  </si>
-  <si>
-    <t>PurchasQuantity</t>
   </si>
   <si>
     <t>BlackCat *1</t>
@@ -110,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -124,8 +123,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +162,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -147,68 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -225,15 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +253,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +325,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,49 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,13 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,79 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +481,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -506,15 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,23 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,25 +1070,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.4909090909091" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="14.2272727272727" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.8636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3454545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9090909090909" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,357 +1102,261 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>256</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>300</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>600</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>648</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/BlackMarketConfig.xlsx
+++ b/Tables/Sources/gameplay/BlackMarketConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>商品ID</t>
   </si>
@@ -67,6 +67,39 @@
   </si>
   <si>
     <t>icon_BlackCat</t>
+  </si>
+  <si>
+    <t>1002|5</t>
+  </si>
+  <si>
+    <t>1003|5</t>
+  </si>
+  <si>
+    <t>1004|5</t>
+  </si>
+  <si>
+    <t>1005|5</t>
+  </si>
+  <si>
+    <t>1006|5</t>
+  </si>
+  <si>
+    <t>1007|5</t>
+  </si>
+  <si>
+    <t>1008|5</t>
+  </si>
+  <si>
+    <t>1009|5</t>
+  </si>
+  <si>
+    <t>1010|5</t>
+  </si>
+  <si>
+    <t>1011|5</t>
+  </si>
+  <si>
+    <t>1012|5</t>
   </si>
 </sst>
 </file>
@@ -74,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,6 +127,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -101,6 +165,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -109,46 +195,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,77 +225,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +495,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -473,6 +521,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,65 +592,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,7 +612,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,7 +621,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,115 +630,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1106,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1183,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -1200,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1217,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -1234,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1251,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -1268,7 +1301,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -1285,7 +1318,7 @@
         <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -1302,7 +1335,7 @@
         <v>256</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -1319,7 +1352,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -1336,7 +1369,7 @@
         <v>600</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
@@ -1353,7 +1386,7 @@
         <v>648</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
